--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,75 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
-    <t>die</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>problem</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -106,151 +121,145 @@
     <t>free</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>like</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>safety</t>
@@ -259,16 +268,16 @@
     <t>important</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -745,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -795,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8424657534246576</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -845,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -945,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6923076923076923</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1095,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1145,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6111111111111112</v>
+        <v>0.68</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.9166666666666666</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.9112271540469974</v>
+        <v>0.90625</v>
       </c>
       <c r="L13">
-        <v>349</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>349</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1295,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4496124031007752</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="D15">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4117647058823529</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8936170212765957</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3728813559322034</v>
+        <v>0.4593023255813953</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.8928571428571429</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1445,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3466666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.8802816901408451</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L18">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2363636363636364</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>0.875</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1342281879194631</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1563,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L20">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,151 +1596,271 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.3066666666666666</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L21">
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <v>70</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.261744966442953</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>110</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L22">
+        <v>49</v>
+      </c>
+      <c r="M22">
+        <v>49</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="C24">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="L21">
-        <v>92</v>
-      </c>
-      <c r="M21">
-        <v>92</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>232</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.004511762810183693</v>
+      </c>
+      <c r="C25">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L22">
-        <v>31</v>
-      </c>
-      <c r="M22">
-        <v>31</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>0.22</v>
+      </c>
+      <c r="F25">
+        <v>0.78</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3089</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L23">
-        <v>70</v>
-      </c>
-      <c r="M23">
-        <v>70</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L24">
-        <v>49</v>
-      </c>
-      <c r="M24">
-        <v>49</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.82</v>
-      </c>
-      <c r="L25">
-        <v>41</v>
-      </c>
-      <c r="M25">
-        <v>41</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.8095238095238095</v>
+        <v>0.8125</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1743,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L27">
         <v>51</v>
       </c>
-      <c r="K27">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
       <c r="M27">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1769,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.7857142857142857</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1795,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1821,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.7708333333333334</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1847,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1873,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K32">
         <v>0.75</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1899,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.7428571428571429</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1925,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.7389830508474576</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L34">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1951,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.7368421052631579</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1977,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.7272727272727273</v>
+        <v>0.72</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2003,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.7205882352941176</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2029,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.696969696969697</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2055,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.694560669456067</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2081,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.6785714285714286</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2107,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.6702127659574468</v>
+        <v>0.675</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2133,21 +2262,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.6666666666666666</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2159,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2185,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.65</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2211,21 +2340,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.6296296296296297</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2237,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.6285714285714286</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2263,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.6190476190476191</v>
+        <v>0.6</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2289,21 +2418,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.6153846153846154</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L48">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2315,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.6086956521739131</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2341,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2367,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.550561797752809</v>
+        <v>0.5</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M51">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2393,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2419,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.5416666666666666</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2445,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.5384615384615384</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2471,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.5098039215686274</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2497,15 +2626,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.4666666666666667</v>
+        <v>0.328125</v>
       </c>
       <c r="L56">
         <v>21</v>
@@ -2523,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.4516129032258064</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2549,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.4358974358974359</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2575,59 +2704,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="L59">
-        <v>22</v>
-      </c>
-      <c r="M59">
-        <v>22</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K60">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L60">
-        <v>17</v>
-      </c>
-      <c r="M60">
-        <v>17</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
